--- a/Базы и хранилища данных/Зачёт/Логином зачет/Группы протоколов.xlsx
+++ b/Базы и хранилища данных/Зачёт/Логином зачет/Группы протоколов.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rkuzu\OneDrive\Desktop\ASU\Базы и хранилища данных\Зачёт\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Praktik\Desktop\ASU\Базы и хранилища данных\Зачёт\Логином зачет\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A62A82-FAD7-48A6-AC2D-18347891AE08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B219D768-098B-4539-AD6C-AE5C9E57A223}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>Описание</t>
   </si>
@@ -48,9 +48,6 @@
     <t>ICMP: 8</t>
   </si>
   <si>
-    <t>TCP: с любого на 80</t>
-  </si>
-  <si>
     <t>TCP: с любого на 443</t>
   </si>
   <si>
@@ -88,6 +85,15 @@
   </si>
   <si>
     <t>TCP: с лого на 1025-5000</t>
+  </si>
+  <si>
+    <t>TCP: с 8080 на 80</t>
+  </si>
+  <si>
+    <t>TCP: с 443 на 80</t>
+  </si>
+  <si>
+    <t>UDP: с 66 на 123</t>
   </si>
 </sst>
 </file>
@@ -499,7 +505,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,7 +545,7 @@
       <c r="A3" s="10"/>
       <c r="B3" s="12"/>
       <c r="C3" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="4"/>
     </row>
@@ -547,7 +553,7 @@
       <c r="A4" s="10"/>
       <c r="B4" s="12"/>
       <c r="C4" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" s="4"/>
     </row>
@@ -555,7 +561,7 @@
       <c r="A5" s="10"/>
       <c r="B5" s="12"/>
       <c r="C5" s="4" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D5" s="4"/>
     </row>
@@ -563,7 +569,7 @@
       <c r="A6" s="10"/>
       <c r="B6" s="12"/>
       <c r="C6" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="4"/>
     </row>
@@ -571,43 +577,43 @@
       <c r="A7" s="10"/>
       <c r="B7" s="12"/>
       <c r="C7" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="C8" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="C10" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="D10" s="4"/>
     </row>
@@ -615,7 +621,7 @@
       <c r="A11" s="10"/>
       <c r="B11" s="12"/>
       <c r="C11" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D11" s="4"/>
     </row>
@@ -623,7 +629,7 @@
       <c r="A12" s="10"/>
       <c r="B12" s="12"/>
       <c r="C12" s="4" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D12" s="4"/>
     </row>
@@ -631,7 +637,7 @@
       <c r="A13" s="10"/>
       <c r="B13" s="12"/>
       <c r="C13" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D13" s="4"/>
     </row>
@@ -639,7 +645,7 @@
       <c r="A14" s="10"/>
       <c r="B14" s="12"/>
       <c r="C14" s="4" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D14" s="4"/>
     </row>
